--- a/NewStuff/bike_data_removedsold.xlsx
+++ b/NewStuff/bike_data_removedsold.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azzi\ML_PROJECT-1\NewStuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\ML_PROJECT\NewStuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4543499-2558-44C5-9ED9-5CB87547A486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CDD90C-83A1-44E1-8FCB-92DB27BDF95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6804,24 +6804,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
-      <selection activeCell="J595" sqref="J595"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.53125" customWidth="1"/>
-    <col min="3" max="3" width="23.86328125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.46484375" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" customWidth="1"/>
-    <col min="7" max="7" width="14.265625" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="14.53125" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -7031,7 +7031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>184</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>184</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>128</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>227</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>232</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>241</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>137</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>256</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>227</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>270</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>276</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>281</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>291</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>296</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>301</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>306</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>48</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>35</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>131</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>344</v>
       </c>
@@ -9236,7 +9236,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>355</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>48</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>364</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>89</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>128</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>184</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>148</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>131</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>386</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>391</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>148</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>401</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>401</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>137</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>419</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -9936,7 +9936,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>427</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>432</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>440</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>449</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>84</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>276</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>28</v>
       </c>
@@ -10251,7 +10251,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>148</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>466</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>475</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>481</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>485</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>489</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>495</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>501</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>505</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>508</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>514</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>520</v>
       </c>
@@ -10706,7 +10706,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>526</v>
       </c>
@@ -10741,7 +10741,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>531</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>475</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>538</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>541</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>526</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>538</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>481</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>485</v>
       </c>
@@ -11021,7 +11021,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>538</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>563</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>568</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>526</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>526</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>579</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>514</v>
       </c>
@@ -11266,7 +11266,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>481</v>
       </c>
@@ -11301,7 +11301,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>590</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>594</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>600</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>605</v>
       </c>
@@ -11441,7 +11441,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>538</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>614</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>563</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>538</v>
       </c>
@@ -11581,7 +11581,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>526</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>627</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>508</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>590</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>637</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>541</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>645</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>650</v>
       </c>
@@ -11861,7 +11861,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>656</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>485</v>
       </c>
@@ -11931,7 +11931,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>664</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>526</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>673</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>677</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>681</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>526</v>
       </c>
@@ -12141,7 +12141,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>505</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>693</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>695</v>
       </c>
@@ -12246,7 +12246,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>700</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>538</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>485</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>520</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>715</v>
       </c>
@@ -12421,7 +12421,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>501</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>722</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>526</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>590</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>734</v>
       </c>
@@ -12596,7 +12596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>737</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>538</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>514</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>485</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>751</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>755</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>645</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>614</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>501</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>485</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>773</v>
       </c>
@@ -12981,7 +12981,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>778</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>751</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>664</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>786</v>
       </c>
@@ -13121,7 +13121,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>514</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>794</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>751</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>801</v>
       </c>
@@ -13261,7 +13261,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>664</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>722</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>501</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>481</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>531</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>538</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>485</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>778</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>526</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>831</v>
       </c>
@@ -13611,7 +13611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>836</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>839</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>590</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>847</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>526</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>605</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>778</v>
       </c>
@@ -13856,7 +13856,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>860</v>
       </c>
@@ -13891,7 +13891,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>865</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>870</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>873</v>
       </c>
@@ -13996,7 +13996,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>877</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>881</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>886</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>886</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>896</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>902</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>907</v>
       </c>
@@ -14241,7 +14241,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>910</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>881</v>
       </c>
@@ -14311,7 +14311,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>917</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>921</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>886</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>929</v>
       </c>
@@ -14451,7 +14451,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>934</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>881</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>942</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>881</v>
       </c>
@@ -14591,7 +14591,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>950</v>
       </c>
@@ -14626,7 +14626,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>934</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>960</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>965</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>970</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>972</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>881</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>979</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>881</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>881</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>990</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>994</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>998</v>
       </c>
@@ -15046,7 +15046,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>1002</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>1007</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>1014</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>1018</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>1023</v>
       </c>
@@ -15221,7 +15221,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>1028</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>344</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>1036</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>942</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>1043</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>1014</v>
       </c>
@@ -15431,7 +15431,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>934</v>
       </c>
@@ -15466,7 +15466,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>1053</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>1056</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>1014</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>681</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>344</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>998</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>881</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1076</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>344</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>1083</v>
       </c>
@@ -15816,7 +15816,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1087</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1090</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1093</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1014</v>
       </c>
@@ -15956,7 +15956,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1090</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>934</v>
       </c>
@@ -16026,7 +16026,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>921</v>
       </c>
@@ -16061,7 +16061,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>921</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>1115</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>1090</v>
       </c>
@@ -16166,7 +16166,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>344</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>942</v>
       </c>
@@ -16236,7 +16236,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>965</v>
       </c>
@@ -16271,7 +16271,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>896</v>
       </c>
@@ -16306,7 +16306,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>1014</v>
       </c>
@@ -16341,7 +16341,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>1053</v>
       </c>
@@ -16376,7 +16376,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>1090</v>
       </c>
@@ -16411,7 +16411,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>1138</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>1142</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>475</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>921</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>881</v>
       </c>
@@ -16586,7 +16586,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>881</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>1159</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>1014</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>1165</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>1169</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>921</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>344</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>917</v>
       </c>
@@ -16866,7 +16866,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>1090</v>
       </c>
@@ -16901,7 +16901,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>1014</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>934</v>
       </c>
@@ -16971,7 +16971,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>344</v>
       </c>
@@ -17006,7 +17006,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>1188</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>1192</v>
       </c>
@@ -17076,7 +17076,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>1018</v>
       </c>
@@ -17111,7 +17111,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>344</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>910</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>917</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>1206</v>
       </c>
@@ -17251,7 +17251,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>1210</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>1192</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>1215</v>
       </c>
@@ -17356,7 +17356,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>1219</v>
       </c>
@@ -17391,7 +17391,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>1225</v>
       </c>
@@ -17426,7 +17426,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>1229</v>
       </c>
@@ -17461,7 +17461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1219</v>
       </c>
@@ -17496,7 +17496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1219</v>
       </c>
@@ -17531,7 +17531,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>1219</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>1219</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1219</v>
       </c>
@@ -17636,7 +17636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>1243</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>1219</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>1243</v>
       </c>
@@ -17741,7 +17741,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>1219</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>1252</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>1256</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>1225</v>
       </c>
@@ -17881,7 +17881,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>1219</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>1219</v>
       </c>
@@ -17951,7 +17951,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>1268</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>1219</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>1219</v>
       </c>
@@ -18056,7 +18056,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>1280</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>1285</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>1289</v>
       </c>
@@ -18161,7 +18161,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>1219</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>1219</v>
       </c>
@@ -18231,7 +18231,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>1219</v>
       </c>
@@ -18266,7 +18266,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>1297</v>
       </c>
@@ -18301,7 +18301,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>1315</v>
       </c>
@@ -18336,7 +18336,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>1320</v>
       </c>
@@ -18371,7 +18371,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1324</v>
       </c>
@@ -18406,7 +18406,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>1329</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1331</v>
       </c>
@@ -18476,7 +18476,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1324</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1339</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1346</v>
       </c>
@@ -18581,7 +18581,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1351</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1324</v>
       </c>
@@ -18651,7 +18651,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1324</v>
       </c>
@@ -18686,7 +18686,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1329</v>
       </c>
@@ -18721,7 +18721,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1381</v>
       </c>
@@ -18756,7 +18756,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>1389</v>
       </c>
@@ -18791,7 +18791,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>1395</v>
       </c>
@@ -18826,7 +18826,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1399</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>1405</v>
       </c>
@@ -18896,7 +18896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1409</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1413</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1418</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1423</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>934</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1430</v>
       </c>
@@ -19106,7 +19106,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>1434</v>
       </c>
@@ -19141,7 +19141,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1418</v>
       </c>
@@ -19176,7 +19176,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>1418</v>
       </c>
@@ -19211,7 +19211,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>1446</v>
       </c>
@@ -19246,7 +19246,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>1451</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>1454</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>1458</v>
       </c>
@@ -19351,7 +19351,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>1418</v>
       </c>
@@ -19386,7 +19386,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>1466</v>
       </c>
@@ -19421,7 +19421,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>1470</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>1473</v>
       </c>
@@ -19491,7 +19491,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>1478</v>
       </c>
@@ -19526,7 +19526,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>1409</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>1483</v>
       </c>
@@ -19596,7 +19596,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1413</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1490</v>
       </c>
@@ -19666,7 +19666,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1495</v>
       </c>
@@ -19701,7 +19701,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>1500</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>1381</v>
       </c>
@@ -19771,7 +19771,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1470</v>
       </c>
@@ -19806,7 +19806,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>1451</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1515</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>1517</v>
       </c>
@@ -19911,7 +19911,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>1519</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>1524</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>1527</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>1531</v>
       </c>
@@ -20051,7 +20051,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1534</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>1538</v>
       </c>
@@ -20121,7 +20121,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1542</v>
       </c>
@@ -20156,7 +20156,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1546</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1550</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1413</v>
       </c>
@@ -20261,7 +20261,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1557</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1561</v>
       </c>
@@ -20331,7 +20331,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1409</v>
       </c>
@@ -20366,7 +20366,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>1515</v>
       </c>
@@ -20401,7 +20401,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>1434</v>
       </c>
@@ -20436,7 +20436,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1573</v>
       </c>
@@ -20471,7 +20471,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1576</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1483</v>
       </c>
@@ -20541,7 +20541,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>1585</v>
       </c>
@@ -20576,7 +20576,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1591</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1592</v>
       </c>
@@ -20646,7 +20646,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>1454</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1517</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1470</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1538</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>1413</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1607</v>
       </c>
@@ -20856,7 +20856,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1470</v>
       </c>
@@ -20891,7 +20891,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1591</v>
       </c>
@@ -20926,7 +20926,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1620</v>
       </c>
@@ -20961,7 +20961,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1626</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1629</v>
       </c>
@@ -21031,7 +21031,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>1626</v>
       </c>
@@ -21066,7 +21066,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>1626</v>
       </c>
@@ -21101,7 +21101,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>1626</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>1640</v>
       </c>
@@ -21171,7 +21171,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1644</v>
       </c>
@@ -21206,7 +21206,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>1647</v>
       </c>
@@ -21241,7 +21241,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>1652</v>
       </c>
@@ -21276,7 +21276,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1626</v>
       </c>
@@ -21311,7 +21311,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1658</v>
       </c>
@@ -21346,7 +21346,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>1626</v>
       </c>
@@ -21381,7 +21381,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1663</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1626</v>
       </c>
@@ -21451,7 +21451,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>1663</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1640</v>
       </c>
@@ -21521,7 +21521,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>1629</v>
       </c>
@@ -21556,7 +21556,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1663</v>
       </c>
@@ -21591,7 +21591,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>1679</v>
       </c>
@@ -21626,7 +21626,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>1640</v>
       </c>
@@ -21661,7 +21661,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>1647</v>
       </c>
@@ -21696,7 +21696,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>1688</v>
       </c>
@@ -21731,7 +21731,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>1626</v>
       </c>
@@ -21766,7 +21766,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1644</v>
       </c>
@@ -21801,7 +21801,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1663</v>
       </c>
@@ -21836,7 +21836,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>1679</v>
       </c>
@@ -21871,7 +21871,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>1663</v>
       </c>
@@ -21906,7 +21906,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>1679</v>
       </c>
@@ -21941,7 +21941,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>1620</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>1620</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1640</v>
       </c>
@@ -22046,7 +22046,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>1713</v>
       </c>
@@ -22081,7 +22081,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>1620</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>1713</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1679</v>
       </c>
@@ -22186,7 +22186,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>1640</v>
       </c>
@@ -22221,7 +22221,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>1626</v>
       </c>
@@ -22256,7 +22256,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1640</v>
       </c>
@@ -22291,7 +22291,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1626</v>
       </c>
@@ -22326,7 +22326,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>1663</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>1053</v>
       </c>
@@ -22396,7 +22396,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1626</v>
       </c>
@@ -22431,7 +22431,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>1746</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>1620</v>
       </c>
@@ -22501,7 +22501,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>1679</v>
       </c>
@@ -22536,7 +22536,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>1640</v>
       </c>
@@ -22571,7 +22571,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>1640</v>
       </c>
@@ -22606,7 +22606,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>1761</v>
       </c>
@@ -22641,7 +22641,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>1640</v>
       </c>
@@ -22676,7 +22676,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>1746</v>
       </c>
@@ -22711,7 +22711,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>1640</v>
       </c>
@@ -22746,7 +22746,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>1774</v>
       </c>
@@ -22781,7 +22781,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>1777</v>
       </c>
@@ -22816,7 +22816,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>1640</v>
       </c>
@@ -22851,7 +22851,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>1626</v>
       </c>
@@ -22886,7 +22886,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>1663</v>
       </c>
@@ -22921,7 +22921,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>1640</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>1652</v>
       </c>
@@ -22991,7 +22991,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>1620</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>1746</v>
       </c>
@@ -23061,7 +23061,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>1640</v>
       </c>
@@ -23096,7 +23096,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>1626</v>
       </c>
@@ -23131,7 +23131,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>1640</v>
       </c>
@@ -23166,7 +23166,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>1688</v>
       </c>
@@ -23201,7 +23201,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>1658</v>
       </c>
@@ -23236,7 +23236,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>1746</v>
       </c>
@@ -23271,7 +23271,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>1629</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>1746</v>
       </c>
@@ -23341,7 +23341,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>1679</v>
       </c>
@@ -23376,7 +23376,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>1713</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>1679</v>
       </c>
@@ -23446,7 +23446,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>1826</v>
       </c>
@@ -23481,7 +23481,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>1640</v>
       </c>
@@ -23516,7 +23516,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>1640</v>
       </c>
@@ -23551,7 +23551,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>1663</v>
       </c>
@@ -23586,7 +23586,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>1640</v>
       </c>
@@ -23621,7 +23621,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>1640</v>
       </c>
@@ -23656,7 +23656,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>1679</v>
       </c>
@@ -23691,7 +23691,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>1746</v>
       </c>
@@ -23726,7 +23726,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>1629</v>
       </c>
@@ -23761,7 +23761,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>1663</v>
       </c>
@@ -23796,7 +23796,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>1663</v>
       </c>
@@ -23831,7 +23831,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>1826</v>
       </c>
@@ -23866,7 +23866,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>1855</v>
       </c>
@@ -23901,7 +23901,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>1860</v>
       </c>
@@ -23936,7 +23936,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>1860</v>
       </c>
@@ -23971,7 +23971,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>1826</v>
       </c>
@@ -24006,7 +24006,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>1870</v>
       </c>
@@ -24041,7 +24041,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>1876</v>
       </c>
@@ -24076,7 +24076,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>1880</v>
       </c>
@@ -24111,7 +24111,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>1884</v>
       </c>
@@ -24146,7 +24146,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>1888</v>
       </c>
@@ -24181,7 +24181,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>1826</v>
       </c>
@@ -24216,7 +24216,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>1894</v>
       </c>
@@ -24251,7 +24251,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>1897</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>1901</v>
       </c>
@@ -24321,7 +24321,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>1884</v>
       </c>
@@ -24356,7 +24356,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>1908</v>
       </c>
@@ -24391,7 +24391,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>1894</v>
       </c>
@@ -24426,7 +24426,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>1884</v>
       </c>
@@ -24461,7 +24461,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>1916</v>
       </c>
@@ -24496,7 +24496,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>1901</v>
       </c>
@@ -24531,7 +24531,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>1922</v>
       </c>
@@ -24566,7 +24566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>1826</v>
       </c>
@@ -24601,7 +24601,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>1901</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>1932</v>
       </c>
@@ -24671,7 +24671,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>1908</v>
       </c>
@@ -24706,7 +24706,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>1884</v>
       </c>
@@ -24741,7 +24741,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>1880</v>
       </c>
@@ -24776,7 +24776,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>1894</v>
       </c>
@@ -24811,7 +24811,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>1894</v>
       </c>
@@ -24846,7 +24846,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>1880</v>
       </c>
@@ -24881,7 +24881,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>1880</v>
       </c>
@@ -24916,7 +24916,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>1901</v>
       </c>
@@ -24951,7 +24951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>1955</v>
       </c>
@@ -24986,7 +24986,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>1959</v>
       </c>
@@ -25021,7 +25021,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>1922</v>
       </c>
@@ -25056,7 +25056,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>1922</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>1901</v>
       </c>
@@ -25126,7 +25126,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>1908</v>
       </c>
@@ -25161,7 +25161,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>1968</v>
       </c>
@@ -25196,7 +25196,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>1826</v>
       </c>
@@ -25231,7 +25231,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>1974</v>
       </c>
@@ -25266,7 +25266,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>1880</v>
       </c>
@@ -25301,7 +25301,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>1901</v>
       </c>
@@ -25336,7 +25336,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>1982</v>
       </c>
@@ -25371,7 +25371,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>1826</v>
       </c>
@@ -25406,7 +25406,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>1894</v>
       </c>
@@ -25441,7 +25441,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>1908</v>
       </c>
@@ -25476,7 +25476,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>1860</v>
       </c>
@@ -25511,7 +25511,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>1992</v>
       </c>
@@ -25546,7 +25546,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>1997</v>
       </c>
@@ -25581,7 +25581,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>1876</v>
       </c>
@@ -25616,7 +25616,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>1860</v>
       </c>
@@ -25651,7 +25651,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>1880</v>
       </c>
@@ -25686,7 +25686,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>1826</v>
       </c>
@@ -25721,7 +25721,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>2011</v>
       </c>
@@ -25756,7 +25756,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>1880</v>
       </c>
@@ -25791,7 +25791,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>1826</v>
       </c>
@@ -25826,7 +25826,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>1826</v>
       </c>
@@ -25861,7 +25861,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>1880</v>
       </c>
@@ -25896,7 +25896,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>1932</v>
       </c>
@@ -25931,7 +25931,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>1826</v>
       </c>
@@ -25966,7 +25966,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>1826</v>
       </c>
@@ -26001,7 +26001,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>2011</v>
       </c>
@@ -26036,7 +26036,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>2034</v>
       </c>
@@ -26071,7 +26071,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>2037</v>
       </c>
@@ -26106,7 +26106,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>1901</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>1922</v>
       </c>
@@ -26176,7 +26176,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>1901</v>
       </c>
@@ -26211,7 +26211,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>1870</v>
       </c>
@@ -26246,7 +26246,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>1826</v>
       </c>
@@ -26281,7 +26281,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>1826</v>
       </c>
@@ -26316,7 +26316,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>1826</v>
       </c>
@@ -26351,7 +26351,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>1880</v>
       </c>
@@ -26386,7 +26386,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>1992</v>
       </c>
@@ -26421,7 +26421,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>2060</v>
       </c>
@@ -26456,7 +26456,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>1860</v>
       </c>
@@ -26491,7 +26491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>1880</v>
       </c>
@@ -26526,7 +26526,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>2068</v>
       </c>
@@ -26561,7 +26561,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>1894</v>
       </c>
@@ -26596,7 +26596,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>1901</v>
       </c>
@@ -26631,7 +26631,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>1826</v>
       </c>
@@ -26666,7 +26666,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>1908</v>
       </c>
@@ -26701,7 +26701,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>1894</v>
       </c>
@@ -26736,7 +26736,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>2075</v>
       </c>
@@ -26771,7 +26771,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>1826</v>
       </c>
@@ -26806,7 +26806,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>1860</v>
       </c>
@@ -26841,7 +26841,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>1997</v>
       </c>
@@ -26876,7 +26876,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>2011</v>
       </c>
@@ -26911,7 +26911,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>2087</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>1955</v>
       </c>
@@ -26981,7 +26981,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>1826</v>
       </c>
@@ -27016,7 +27016,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>1880</v>
       </c>
@@ -27051,7 +27051,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>1826</v>
       </c>
@@ -27086,7 +27086,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>1955</v>
       </c>
@@ -27121,7 +27121,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>1894</v>
       </c>
@@ -27156,7 +27156,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>1880</v>
       </c>
@@ -27191,7 +27191,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>1826</v>
       </c>
@@ -27226,7 +27226,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>1992</v>
       </c>
@@ -27261,7 +27261,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>1826</v>
       </c>
@@ -27296,7 +27296,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>1922</v>
       </c>
@@ -27331,7 +27331,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>2117</v>
       </c>
@@ -27366,7 +27366,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>1225</v>
       </c>
@@ -27401,7 +27401,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>2125</v>
       </c>
@@ -27436,7 +27436,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>1313</v>
       </c>
@@ -27471,7 +27471,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>2131</v>
       </c>
@@ -27506,7 +27506,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>1312</v>
       </c>
@@ -27541,7 +27541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>1313</v>
       </c>
